--- a/Naukri.com_Defect_GenerationSheet_JIRA.xlsx
+++ b/Naukri.com_Defect_GenerationSheet_JIRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutomationTesting\Assignments\Manual Assignments\Manual Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AC8D49-DB6B-4101-A6D4-C53110C13A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A2A05A-5B07-4D7E-A902-2D1297D11DFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,6 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2653,7 +2656,7 @@
   <dimension ref="A1:A197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2662,7 +2665,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
